--- a/0_File/1_Data/009_零件表.xlsx
+++ b/0_File/1_Data/009_零件表.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
